--- a/edited_budgets.xlsx
+++ b/edited_budgets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB8D26-4935-48BC-814E-1174F18E3889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1DBE8-F6E1-4E6E-9C06-6A57490975F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" firstSheet="2" activeTab="6" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="4110" yWindow="3060" windowWidth="21600" windowHeight="13080" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="560">
   <si>
     <t>Ag Decision Maker -- Iowa State University Extension and Outreach</t>
   </si>
@@ -2136,6 +2136,9 @@
   </si>
   <si>
     <t>Rent</t>
+  </si>
+  <si>
+    <t>Establishment</t>
   </si>
 </sst>
 </file>
@@ -5201,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8147,7 +8150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02275E17-4972-5E40-AE4E-030772BA7BB6}">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -8916,14 +8919,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF4230-77CF-7944-BE36-452C20967177}">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
@@ -8980,7 +8983,7 @@
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
       <c r="C6" s="176">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>550</v>
@@ -8990,7 +8993,7 @@
       </c>
       <c r="F6">
         <f>C6*D6*E6</f>
-        <v>27500</v>
+        <v>1375</v>
       </c>
       <c r="G6">
         <f>F6/C6</f>
@@ -9070,11 +9073,11 @@
       </c>
       <c r="E10" s="154">
         <f>5*C6</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F10" s="155">
         <f>D10*E10</f>
-        <v>3200</v>
+        <v>160</v>
       </c>
       <c r="G10" s="155">
         <f>F10/C6</f>
@@ -9098,7 +9101,7 @@
       </c>
       <c r="E11" s="160">
         <f>5*C6</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F11" s="159">
         <f>D11*E11</f>
@@ -9169,11 +9172,11 @@
       </c>
       <c r="E15" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F15" s="424">
         <f>D15*E15</f>
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G15" s="422">
         <f>F15/C6</f>
@@ -9197,11 +9200,11 @@
       </c>
       <c r="E16" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F16" s="422">
         <f>D16*E16</f>
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G16" s="422">
         <f>F16/C6</f>
@@ -9225,11 +9228,11 @@
       </c>
       <c r="E17" s="421">
         <f>F6*0.02</f>
-        <v>550</v>
+        <v>27.5</v>
       </c>
       <c r="F17" s="422">
         <f>F6*0.02</f>
-        <v>550</v>
+        <v>27.5</v>
       </c>
       <c r="G17" s="425">
         <f>F17/C6</f>
@@ -9254,11 +9257,11 @@
       </c>
       <c r="E18" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F18" s="422">
         <f>D18*E18</f>
-        <v>25</v>
+        <v>1.25</v>
       </c>
       <c r="G18" s="422">
         <v>1.25</v>
@@ -9281,11 +9284,11 @@
       </c>
       <c r="E19" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F19" s="422">
         <f>D19*E19</f>
-        <v>1200</v>
+        <v>60</v>
       </c>
       <c r="G19" s="436">
         <f>D19</f>
@@ -9307,11 +9310,11 @@
       </c>
       <c r="E20" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F20" s="422">
         <f>D20*E20</f>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G20" s="422">
         <v>1</v>
@@ -9334,19 +9337,19 @@
       </c>
       <c r="E21" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F21" s="424">
         <f>D21*E21</f>
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G21" s="422">
         <f>F21/20</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H21" s="496">
         <f t="shared" si="1"/>
-        <v>0.15151515151515152</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="I21" s="497"/>
     </row>
@@ -9366,15 +9369,15 @@
       </c>
       <c r="F22" s="422">
         <f>E22*D22*C6</f>
-        <v>29040.000000000004</v>
+        <v>1452.0000000000002</v>
       </c>
       <c r="G22" s="422">
         <f>F22/20</f>
-        <v>1452.0000000000002</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="H22" s="496">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="I22" s="497"/>
     </row>
@@ -9390,19 +9393,19 @@
       </c>
       <c r="E23" s="421">
         <f>C6</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F23" s="422">
         <f>D23*E23</f>
-        <v>700</v>
+        <v>35</v>
       </c>
       <c r="G23" s="422">
         <f>F23/20</f>
-        <v>35</v>
+        <v>1.75</v>
       </c>
       <c r="H23" s="496">
         <f t="shared" si="1"/>
-        <v>5.3030303030303032E-2</v>
+        <v>2.6515151515151517E-3</v>
       </c>
       <c r="I23" s="497"/>
     </row>
@@ -9496,15 +9499,15 @@
       <c r="E27" s="171"/>
       <c r="F27" s="422">
         <f>SUM(F10:F26)</f>
-        <v>42020</v>
+        <v>6342.75</v>
       </c>
       <c r="G27" s="422">
         <f>SUM(G10:G26)</f>
-        <v>2099.809836065574</v>
+        <v>592.15983606557381</v>
       </c>
       <c r="H27" s="496">
         <f t="shared" si="1"/>
-        <v>3.1815300546448091</v>
+        <v>0.89721187282662695</v>
       </c>
       <c r="I27" s="497"/>
     </row>
@@ -9581,15 +9584,15 @@
       <c r="E32" s="433"/>
       <c r="F32" s="434">
         <f>F31+F27+F6</f>
-        <v>71160</v>
+        <v>9357.75</v>
       </c>
       <c r="G32" s="429">
         <f>G27+G6+G31</f>
-        <v>3556.809836065574</v>
+        <v>2049.1598360655739</v>
       </c>
       <c r="H32" s="505">
         <f t="shared" si="1"/>
-        <v>5.3891058122205671</v>
+        <v>3.1047876304023849</v>
       </c>
       <c r="I32" s="506"/>
       <c r="J32" t="s">
@@ -9605,7 +9608,7 @@
       </c>
       <c r="F33" s="434">
         <f>(K8*I8)*C6</f>
-        <v>74580.000000000015</v>
+        <v>3729.0000000000005</v>
       </c>
       <c r="G33" s="430">
         <f>(I8*K8)</f>
@@ -9623,11 +9626,11 @@
       </c>
       <c r="F34" s="435">
         <f>F33-F32</f>
-        <v>3420.0000000000146</v>
+        <v>-5628.75</v>
       </c>
       <c r="G34" s="431">
         <f>G33-G32</f>
-        <v>172.19016393442644</v>
+        <v>1679.8401639344265</v>
       </c>
       <c r="H34" s="168"/>
       <c r="I34" s="168"/>
@@ -9697,7 +9700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB919C84-8B9C-C941-BB07-F157A032DE5B}">
   <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P3"/>
     </sheetView>
   </sheetViews>
@@ -10544,7 +10547,7 @@
   <dimension ref="B3:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10744,7 +10747,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13698,7 +13701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4A553-5A20-544F-981B-7A427BC0DBF5}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:M7"/>
     </sheetView>
   </sheetViews>
@@ -15277,7 +15280,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -17028,7 +17031,7 @@
     <row r="77" spans="2:11">
       <c r="B77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -17986,7 +17989,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -19831,7 +19834,7 @@
     <row r="101" spans="2:12">
       <c r="B101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -21521,7 +21524,7 @@
     <row r="73" spans="2:12">
       <c r="B73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -21620,7 +21623,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -23369,7 +23372,7 @@
     <row r="88" spans="2:12">
       <c r="B88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -23451,12 +23454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A57DC-7D68-DE46-98A4-FDAEE91B33A9}">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
@@ -26393,7 +26397,7 @@
     <row r="133" spans="2:12">
       <c r="B133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -26451,20 +26455,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BFB6-13E6-734C-8B47-C560968C2226}">
-  <dimension ref="B1:P138"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="21" thickBot="1">
+    <row r="1" spans="1:16" ht="21" thickBot="1">
       <c r="B1" s="87" t="s">
         <v>118</v>
       </c>
@@ -26479,7 +26484,7 @@
       <c r="K1" s="92"/>
       <c r="L1" s="94"/>
     </row>
-    <row r="2" spans="2:16" ht="16.5" thickTop="1">
+    <row r="2" spans="1:16" ht="16.5" thickTop="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26494,7 +26499,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="1:16">
       <c r="B3" s="4" t="s">
         <v>119</v>
       </c>
@@ -26509,7 +26514,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="1:16">
       <c r="B4" s="6" t="s">
         <v>120</v>
       </c>
@@ -26524,7 +26529,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="1:16">
       <c r="B5" s="349" t="s">
         <v>2</v>
       </c>
@@ -26539,7 +26544,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="1:16">
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -26556,7 +26561,7 @@
       </c>
       <c r="N6" s="486"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="1:16">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -26575,7 +26580,7 @@
       <c r="M7" s="487"/>
       <c r="N7" s="487"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="1:16">
       <c r="B8" s="358" t="s">
         <v>6</v>
       </c>
@@ -26592,7 +26597,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="1:16">
       <c r="B9" s="101" t="s">
         <v>121</v>
       </c>
@@ -26617,7 +26622,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="1:16">
       <c r="B10" s="14"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -26630,7 +26635,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="1:16">
       <c r="B11" s="106" t="s">
         <v>125</v>
       </c>
@@ -26651,7 +26656,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="1:16">
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
@@ -26675,7 +26680,10 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
       <c r="B13" s="353" t="s">
         <v>126</v>
       </c>
@@ -26700,7 +26708,10 @@
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>559</v>
+      </c>
       <c r="B14" s="353" t="s">
         <v>127</v>
       </c>
@@ -26726,7 +26737,10 @@
       <c r="L14" s="8"/>
       <c r="P14" s="376"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>559</v>
+      </c>
       <c r="B15" s="353" t="s">
         <v>128</v>
       </c>
@@ -26751,7 +26765,10 @@
       </c>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>559</v>
+      </c>
       <c r="B16" s="353" t="s">
         <v>129</v>
       </c>
@@ -26776,7 +26793,10 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>559</v>
+      </c>
       <c r="B17" s="353" t="s">
         <v>130</v>
       </c>
@@ -26801,7 +26821,10 @@
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
       <c r="B18" s="353" t="s">
         <v>22</v>
       </c>
@@ -26826,7 +26849,10 @@
       </c>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>559</v>
+      </c>
       <c r="B19" s="353" t="s">
         <v>22</v>
       </c>
@@ -26851,7 +26877,7 @@
       </c>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="1:12">
       <c r="B20" s="28" t="s">
         <v>23</v>
       </c>
@@ -26878,7 +26904,7 @@
       </c>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="1:12">
       <c r="B21" s="28" t="s">
         <v>24</v>
       </c>
@@ -26902,7 +26928,7 @@
       <c r="K21" s="31"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="1:12">
       <c r="B22" s="8"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -26915,7 +26941,7 @@
       <c r="K22" s="24"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="1:12">
       <c r="B23" s="32"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -26934,7 +26960,7 @@
       </c>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="1:12">
       <c r="B24" s="9" t="s">
         <v>131</v>
       </c>
@@ -26962,7 +26988,10 @@
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>556</v>
+      </c>
       <c r="B25" s="380" t="s">
         <v>474</v>
       </c>
@@ -26994,7 +27023,10 @@
       </c>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>556</v>
+      </c>
       <c r="B26" s="380"/>
       <c r="C26" s="3"/>
       <c r="D26" s="357"/>
@@ -27020,7 +27052,10 @@
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>556</v>
+      </c>
       <c r="B27" s="380"/>
       <c r="C27" s="3"/>
       <c r="D27" s="357"/>
@@ -27046,7 +27081,10 @@
       </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>556</v>
+      </c>
       <c r="B28" s="34" t="s">
         <v>135</v>
       </c>
@@ -27069,7 +27107,10 @@
       </c>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>556</v>
+      </c>
       <c r="B29" s="34" t="s">
         <v>37</v>
       </c>
@@ -27092,7 +27133,10 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>556</v>
+      </c>
       <c r="B30" s="34" t="s">
         <v>40</v>
       </c>
@@ -27115,7 +27159,7 @@
       </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="1:12">
       <c r="B31" s="28" t="s">
         <v>58</v>
       </c>
@@ -27139,7 +27183,7 @@
       </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="1:12">
       <c r="B32" s="8"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -27154,7 +27198,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="1:12">
       <c r="B33" s="9" t="s">
         <v>136</v>
       </c>
@@ -27173,7 +27217,10 @@
       <c r="K33" s="22"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>557</v>
+      </c>
       <c r="B34" s="34" t="s">
         <v>137</v>
       </c>
@@ -27203,7 +27250,10 @@
       </c>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>557</v>
+      </c>
       <c r="B35" s="37" t="s">
         <v>21</v>
       </c>
@@ -27233,7 +27283,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="1:12">
       <c r="B36" s="28" t="s">
         <v>139</v>
       </c>
@@ -27257,7 +27307,7 @@
       </c>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="1:12">
       <c r="B37" s="49"/>
       <c r="C37" s="44"/>
       <c r="D37" s="48"/>
@@ -27270,7 +27320,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="1:12">
       <c r="B38" s="106" t="s">
         <v>140</v>
       </c>
@@ -27293,7 +27343,7 @@
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="1:12">
       <c r="B39" s="110" t="s">
         <v>141</v>
       </c>
@@ -27317,7 +27367,7 @@
       <c r="K39" s="115"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="1:12">
       <c r="B40" s="8"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -27332,7 +27382,7 @@
       </c>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="1:12">
       <c r="B41" s="106" t="s">
         <v>142</v>
       </c>
@@ -27353,7 +27403,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="1:12">
       <c r="B42" s="9" t="s">
         <v>143</v>
       </c>
@@ -27381,7 +27431,10 @@
       </c>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>556</v>
+      </c>
       <c r="B43" s="380" t="s">
         <v>31</v>
       </c>
@@ -27411,7 +27464,10 @@
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>556</v>
+      </c>
       <c r="B44" s="380" t="s">
         <v>34</v>
       </c>
@@ -27443,7 +27499,10 @@
       </c>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>556</v>
+      </c>
       <c r="B45" s="380" t="s">
         <v>35</v>
       </c>
@@ -27475,7 +27534,10 @@
       </c>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>556</v>
+      </c>
       <c r="B46" s="34" t="s">
         <v>39</v>
       </c>
@@ -27496,7 +27558,10 @@
       </c>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>556</v>
+      </c>
       <c r="B47" s="37" t="s">
         <v>40</v>
       </c>
@@ -27517,7 +27582,7 @@
       </c>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="1:12">
       <c r="B48" s="28" t="s">
         <v>58</v>
       </c>
@@ -27541,7 +27606,7 @@
       </c>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="1:12">
       <c r="B49" s="8"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -27556,7 +27621,7 @@
       </c>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="1:12">
       <c r="B50" s="9" t="s">
         <v>144</v>
       </c>
@@ -27583,7 +27648,10 @@
       </c>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>557</v>
+      </c>
       <c r="B51" s="34" t="s">
         <v>145</v>
       </c>
@@ -27613,7 +27681,10 @@
       </c>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>557</v>
+      </c>
       <c r="B52" s="37" t="s">
         <v>21</v>
       </c>
@@ -27643,7 +27714,7 @@
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="1:12">
       <c r="B53" s="28" t="s">
         <v>58</v>
       </c>
@@ -27667,7 +27738,7 @@
       </c>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="1:12">
       <c r="B54" s="8"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -27682,7 +27753,7 @@
       </c>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="1:12">
       <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
@@ -27705,7 +27776,7 @@
       </c>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="1:12">
       <c r="B56" s="8" t="s">
         <v>60</v>
       </c>
@@ -27728,7 +27799,7 @@
       </c>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="1:12">
       <c r="B57" s="8"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -27743,7 +27814,7 @@
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="1:12">
       <c r="B58" s="9" t="s">
         <v>147</v>
       </c>
@@ -27766,7 +27837,10 @@
       </c>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
       <c r="B59" s="367" t="s">
         <v>148</v>
       </c>
@@ -27791,7 +27865,10 @@
       </c>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
       <c r="B60" s="368" t="s">
         <v>149</v>
       </c>
@@ -27816,7 +27893,10 @@
       </c>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
       <c r="B61" s="368" t="s">
         <v>150</v>
       </c>
@@ -27841,7 +27921,10 @@
       </c>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
       <c r="B62" s="43" t="s">
         <v>48</v>
       </c>
@@ -27876,7 +27959,10 @@
       </c>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
       <c r="B63" s="368" t="s">
         <v>21</v>
       </c>
@@ -27901,7 +27987,10 @@
       </c>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
       <c r="B64" s="28" t="s">
         <v>153</v>
       </c>
@@ -27925,7 +28014,10 @@
       <c r="K64" s="3"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
       <c r="B65" s="28" t="s">
         <v>154</v>
       </c>
@@ -27949,7 +28041,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="1:12">
       <c r="B66" s="28" t="s">
         <v>155</v>
       </c>
@@ -27973,7 +28065,7 @@
       </c>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="1:12">
       <c r="B67" s="8"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -27986,7 +28078,7 @@
       <c r="K67" s="24"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="1:12">
       <c r="B68" s="32"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -28005,7 +28097,7 @@
       </c>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="1:12">
       <c r="B69" s="119" t="s">
         <v>156</v>
       </c>
@@ -28029,7 +28121,7 @@
       </c>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="1:12">
       <c r="B70" s="34" t="s">
         <v>157</v>
       </c>
@@ -28056,7 +28148,7 @@
       </c>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="1:12">
       <c r="B71" s="8"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -28069,7 +28161,7 @@
       <c r="K71" s="31"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="1:12">
       <c r="B72" s="32"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -28088,7 +28180,7 @@
       </c>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="1:12">
       <c r="B73" s="9" t="s">
         <v>158</v>
       </c>
@@ -28109,7 +28201,7 @@
       </c>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="1:12">
       <c r="B74" s="37" t="s">
         <v>322</v>
       </c>
@@ -28137,7 +28229,7 @@
       </c>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="2:12" ht="16.5" thickBot="1">
+    <row r="75" spans="1:12" ht="16.5" thickBot="1">
       <c r="B75" s="72" t="s">
         <v>75</v>
       </c>
@@ -28158,7 +28250,7 @@
       </c>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="2:12" ht="16.5" thickTop="1">
+    <row r="76" spans="1:12" ht="16.5" thickTop="1">
       <c r="B76" s="54" t="s">
         <v>76</v>
       </c>
@@ -28182,7 +28274,7 @@
       </c>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="1:12">
       <c r="B77" s="14"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -28195,7 +28287,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="2:12" ht="18.75" thickBot="1">
+    <row r="78" spans="1:12" ht="18.75" thickBot="1">
       <c r="B78" s="124" t="s">
         <v>161</v>
       </c>
@@ -28210,7 +28302,7 @@
       <c r="K78" s="125"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="2:12" ht="16.5" thickTop="1">
+    <row r="79" spans="1:12" ht="16.5" thickTop="1">
       <c r="B79" s="101" t="s">
         <v>162</v>
       </c>
@@ -28235,7 +28327,7 @@
       <c r="K79" s="105"/>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="1:12">
       <c r="B80" s="101" t="s">
         <v>164</v>
       </c>
@@ -29356,7 +29448,7 @@
     <row r="133" spans="2:12">
       <c r="B133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -29416,9 +29508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C65BE3-6309-5F4C-AD82-BBD04E439FAE}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O3"/>
-    </sheetView>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
